--- a/medicine/Enfance/Pettson_et_Picpus/Pettson_et_Picpus.xlsx
+++ b/medicine/Enfance/Pettson_et_Picpus/Pettson_et_Picpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pettson et Picpus (Pettson och Findus en suédois) est une série de livres pour enfants écrits par Sven Nordqvist. Les personnages principaux sont le vieux Pettson et son petit compagnon sympathique, le chat  Picpus. Les livres de la série ont été adaptés à de nombreuses reprises et dans différentes langues en dessins animés.
 La popularité de la série s’est construite autour de la richesse des illustrations des livres, parsemées de petits détails humoristiques et incongrus et des nombreux jeux de mots présents dans les textes. Sven Nordqvist travaillait dans une agence de publicité à Halmstad lorsqu’il dessina pour la première fois Pettson et Picpus. L’un des livres de la série, När findus var liten och försvann (« Le jour où Picpus a disparu » en français), raconte comment Pettson s’ennuyait et se sentait seul avant qu’une de ses voisines, Beda Andersson, ne lui apporte une boîte sur laquelle était mentionné « petit pois verts » contenant le petit animal.
